--- a/Ash_inventory_datasheets_draft.xlsx
+++ b/Ash_inventory_datasheets_draft.xlsx
@@ -138,6 +138,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BLM, </t>
     </r>
@@ -146,6 +147,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Bigleaf maple</t>
     </r>
@@ -155,6 +157,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">; BLC, </t>
     </r>
@@ -163,6 +166,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Black cottonwood; </t>
     </r>
@@ -172,6 +176,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BLH,</t>
     </r>
@@ -180,6 +185,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Black hawthorne; </t>
     </r>
@@ -189,6 +195,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CAS</t>
     </r>
@@ -197,6 +204,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Cascara; </t>
     </r>
@@ -206,6 +214,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">COP</t>
     </r>
@@ -214,6 +223,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Common pear; </t>
     </r>
@@ -223,6 +233,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DOF</t>
     </r>
@@ -231,6 +242,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Douglas-fir; </t>
     </r>
@@ -240,6 +252,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GRF</t>
     </r>
@@ -248,6 +261,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Grand fir; </t>
     </r>
@@ -257,6 +271,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ORA</t>
     </r>
@@ -265,6 +280,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Oregon ash; </t>
     </r>
@@ -274,6 +290,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ORO</t>
     </r>
@@ -282,6 +299,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Oregon oak; </t>
     </r>
@@ -291,6 +309,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PAW</t>
     </r>
@@ -299,6 +318,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Pacific willow; </t>
     </r>
@@ -308,6 +328,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">REA</t>
     </r>
@@ -316,6 +337,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Red Alder; </t>
     </r>
@@ -325,6 +347,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SCW</t>
     </r>
@@ -333,6 +356,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Scouler willow; </t>
     </r>
@@ -342,6 +366,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSH</t>
     </r>
@@ -350,6 +375,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, single-seed hawthorne; </t>
     </r>
@@ -359,6 +385,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VPP</t>
     </r>
@@ -367,6 +394,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Valley ponderosa pine; </t>
     </r>
@@ -376,6 +404,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VIM</t>
     </r>
@@ -384,6 +413,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Vine maple; </t>
     </r>
@@ -393,6 +423,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WEC</t>
     </r>
@@ -401,6 +432,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Western crabapple; </t>
     </r>
@@ -410,6 +442,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WRC</t>
     </r>
@@ -418,6 +451,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Western redcedar; </t>
     </r>
@@ -427,6 +461,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WHA</t>
     </r>
@@ -435,6 +470,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, White alder; </t>
     </r>
@@ -444,6 +480,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WIL</t>
     </r>
@@ -452,6 +489,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, unknown willow; </t>
     </r>
@@ -461,6 +499,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ALD</t>
     </r>
@@ -469,6 +508,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, unknown alder; </t>
     </r>
@@ -478,6 +518,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">HAW</t>
     </r>
@@ -486,6 +527,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, unknown hawthorne. Codes for species not present in this list can be added.</t>
     </r>
@@ -494,7 +536,110 @@
     <t xml:space="preserve">Understory species codes</t>
   </si>
   <si>
-    <t xml:space="preserve">For seedlings of canopy species, use codes above. May create codes for important shrubby species on your site.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For seedlings of canopy species, use codes above. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Invasive species to note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Reed canary grass; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Himalayan blackberry; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EIV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, English ivy; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> scotch broom.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Stand Inventory Survey</t>
@@ -548,6 +693,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -569,6 +715,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -677,20 +824,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.59"/>
   </cols>
   <sheetData>
@@ -871,7 +1018,7 @@
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;12Survey Date:&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A&amp;R&amp;"Times New Roman,Regular"&amp;12&amp;P/&amp;N</oddHeader>
@@ -885,21 +1032,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="50.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1346,7 @@
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;12Survey Date:&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A&amp;R&amp;"Times New Roman,Regular"&amp;12&amp;P/&amp;N</oddHeader>
@@ -1219,7 +1366,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
@@ -1329,7 +1476,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;12Survey Date:&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A&amp;R&amp;"Times New Roman,Regular"&amp;12&amp;P/&amp;N</oddHeader>
@@ -1346,10 +1493,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.4"/>
@@ -1441,7 +1588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1588,7 +1735,7 @@
     <mergeCell ref="A25:B25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.886111111111111" header="0.7875" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;12Survey Date:&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A&amp;R&amp;"Times New Roman,Regular"&amp;12&amp;P/&amp;N</oddHeader>
